--- a/backend/uploads/Book1.xlsx
+++ b/backend/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3588A261-2DCB-44C2-8FED-1ACBF2E3813E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621588D2-2A34-49B8-898D-BB0DE015E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C0D4B31-E4EF-45AA-B488-64D27D1F9C9C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C0D4B31-E4EF-45AA-B488-64D27D1F9C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,22 +413,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63000C2-B665-4AD3-B629-65F173AFBF5F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>23</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>65436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
